--- a/upload_file/export_user.xlsx
+++ b/upload_file/export_user.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\CMDB\upload_file\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
-  </bookViews>
-  <sheets>
-    <sheet name="pyexcel_sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="pyexcel_sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>USE</t>
   </si>
@@ -36,48 +31,47 @@
     <t>邮箱</t>
   </si>
   <si>
+    <t>明广振</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>temp user</t>
+  </si>
+  <si>
+    <t>123@x.com</t>
+  </si>
+  <si>
     <t>mingguangzhen</t>
   </si>
   <si>
-    <t>123456</t>
-  </si>
-  <si>
     <t>administrator</t>
   </si>
   <si>
     <t>Aaron_ming@outlook.com</t>
   </si>
   <si>
-    <t>123457</t>
-  </si>
-  <si>
     <t>小强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,24 +87,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -398,23 +384,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,43 +414,228 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:5">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>